--- a/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,78%</t>
+          <t>58,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>63,53%</t>
+          <t>54,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>81,77%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,13; 97,23</t>
+          <t>63,96; 89,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,42; 84,33</t>
+          <t>56,06; 84,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,85; 85,46</t>
+          <t>28,54; 72,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,62; 87,02</t>
+          <t>63,52; 90,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,22; 90,06</t>
+          <t>55,95; 87,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,46; 78,89</t>
+          <t>58,75; 86,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,5; 79,43</t>
+          <t>34,4; 77,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,14; 90,93</t>
+          <t>61,31; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,76; 90,86</t>
+          <t>66,14; 86,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,91; 78,26</t>
+          <t>61,15; 81,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48,14; 77,33</t>
+          <t>40,63; 71,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,17; 86,29</t>
+          <t>69,23; 91,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>71,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>66,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>63,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>59,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>82,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>78,34%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,96; 89,85</t>
+          <t>75,13; 97,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,06; 84,99</t>
+          <t>57,42; 84,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,54; 72,02</t>
+          <t>46,85; 85,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,52; 90,5</t>
+          <t>62,62; 87,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,95; 87,16</t>
+          <t>52,22; 90,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,75; 86,82</t>
+          <t>46,46; 78,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,4; 77,35</t>
+          <t>35,5; 79,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61,31; 100,0</t>
+          <t>68,14; 90,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66,14; 86,22</t>
+          <t>70,76; 90,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>61,15; 81,13</t>
+          <t>57,91; 78,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,63; 71,45</t>
+          <t>48,14; 77,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,23; 91,42</t>
+          <t>69,17; 86,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>81,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,75%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>73,75%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>58,55%</t>
+          <t>51,8%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,22; 89,07</t>
+          <t>58,18; 95,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,56; 63,19</t>
+          <t>23,19; 56,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,47; 68,3</t>
+          <t>20,36; 63,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,47; 69,31</t>
+          <t>27,15; 72,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,93; 82,91</t>
+          <t>23,82; 74,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,88; 65,88</t>
+          <t>25,73; 63,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 59,33</t>
+          <t>5,57; 45,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,65; 84,41</t>
+          <t>27,98; 81,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,96; 82,97</t>
+          <t>52,43; 83,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,73; 60,81</t>
+          <t>28,89; 54,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,04; 57,27</t>
+          <t>18,38; 50,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,79; 71,25</t>
+          <t>34,25; 68,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>75,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>72,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>63,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>78,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>70,4%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,96; 89,85</t>
+          <t>61,98; 86,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,06; 84,99</t>
+          <t>55,86; 80,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,54; 72,02</t>
+          <t>35,88; 71,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,52; 90,5</t>
+          <t>50,98; 81,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,95; 87,16</t>
+          <t>58,06; 88,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,75; 86,82</t>
+          <t>59,4; 85,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,4; 77,35</t>
+          <t>42,62; 79,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,31; 100,0</t>
+          <t>43,6; 95,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,14; 86,22</t>
+          <t>65,31; 83,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,15; 81,13</t>
+          <t>60,59; 79,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,63; 71,45</t>
+          <t>46,31; 70,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,23; 91,42</t>
+          <t>55,16; 81,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>60,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>59,78%</t>
+          <t>67,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63,53%</t>
+          <t>64,58%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>79,79%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,13; 97,23</t>
+          <t>70,41; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,42; 84,33</t>
+          <t>38,19; 81,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,85; 85,46</t>
+          <t>23,03; 87,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,62; 87,02</t>
+          <t>56,6; 89,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,22; 90,06</t>
+          <t>52,65; 90,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,46; 78,89</t>
+          <t>46,38; 80,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,5; 79,43</t>
+          <t>31,53; 92,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,14; 90,93</t>
+          <t>60,62; 95,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,76; 90,86</t>
+          <t>69,44; 93,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,91; 78,26</t>
+          <t>49,51; 75,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>48,14; 77,33</t>
+          <t>41,84; 85,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,17; 86,29</t>
+          <t>65,41; 89,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>88,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,09%</t>
+          <t>77,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,05%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,89%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>65,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>81,37%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,61; 87,96</t>
+          <t>73,11; 96,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,32; 70,98</t>
+          <t>60,19; 89,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,35; 66,85</t>
+          <t>43,4; 89,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,35; 80,68</t>
+          <t>63,47; 91,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,04; 79,53</t>
+          <t>41,76; 92,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,97; 70,41</t>
+          <t>41,39; 84,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,66; 62,55</t>
+          <t>20,79; 69,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,1; 86,66</t>
+          <t>66,89; 93,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,76; 83,16</t>
+          <t>70,57; 94,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,39; 68,05</t>
+          <t>59,97; 83,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,34; 61,22</t>
+          <t>39,78; 77,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,87; 80,85</t>
+          <t>70,13; 90,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81,98%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>72,05%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74,36; 87,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 70,86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45,06; 66,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63,41; 80,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>59,88; 79,74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54,08; 70,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39,44; 63,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69,28; 87,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71,36; 83,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56,77; 68,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45,02; 61,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>69,06; 81,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,18; 95,42</t>
+          <t>62,95; 95,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 56,47</t>
+          <t>24,39; 58,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 63,46</t>
+          <t>22,28; 66,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 72,23</t>
+          <t>25,6; 73,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,82; 74,67</t>
+          <t>22,39; 79,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,73; 63,18</t>
+          <t>25,52; 60,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 45,24</t>
+          <t>5,72; 47,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 81,14</t>
+          <t>29,98; 82,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,43; 83,54</t>
+          <t>51,38; 82,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,89; 54,82</t>
+          <t>30,32; 54,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 50,79</t>
+          <t>18,34; 49,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,25; 68,36</t>
+          <t>34,51; 68,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,98; 86,63</t>
+          <t>61,45; 85,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,86; 80,96</t>
+          <t>56,26; 81,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,88; 71,81</t>
+          <t>34,7; 70,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 81,14</t>
+          <t>48,55; 81,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,06; 88,5</t>
+          <t>58,5; 87,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,4; 85,52</t>
+          <t>56,12; 83,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,62; 79,71</t>
+          <t>43,12; 80,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,6; 95,27</t>
+          <t>50,31; 95,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,31; 83,72</t>
+          <t>65,43; 83,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,59; 79,41</t>
+          <t>60,94; 79,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,31; 70,21</t>
+          <t>44,29; 70,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,16; 81,13</t>
+          <t>55,76; 81,4</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,41; 100,0</t>
+          <t>69,03; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,19; 81,82</t>
+          <t>37,07; 78,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,03; 87,81</t>
+          <t>22,9; 87,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,6; 89,23</t>
+          <t>57,93; 90,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,65; 90,67</t>
+          <t>49,91; 90,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,38; 80,84</t>
+          <t>45,73; 82,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,53; 92,44</t>
+          <t>38,65; 88,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,62; 95,36</t>
+          <t>59,91; 95,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69,44; 93,14</t>
+          <t>70,07; 92,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,51; 75,35</t>
+          <t>48,61; 74,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 85,52</t>
+          <t>41,72; 85,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>65,41; 89,53</t>
+          <t>65,92; 89,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,11; 96,4</t>
+          <t>73,07; 96,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,19; 89,85</t>
+          <t>60,66; 89,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,4; 89,01</t>
+          <t>45,24; 93,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63,47; 91,54</t>
+          <t>62,99; 91,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,76; 92,06</t>
+          <t>41,56; 92,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,39; 84,42</t>
+          <t>44,28; 85,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 69,98</t>
+          <t>21,51; 70,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,89; 93,03</t>
+          <t>66,57; 93,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,57; 94,34</t>
+          <t>69,69; 94,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,97; 83,34</t>
+          <t>58,99; 83,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,78; 77,32</t>
+          <t>39,95; 73,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,13; 90,11</t>
+          <t>70,36; 89,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,36; 87,96</t>
+          <t>73,9; 88,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,32; 70,86</t>
+          <t>54,65; 70,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,06; 66,11</t>
+          <t>44,25; 65,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,41; 80,24</t>
+          <t>61,88; 80,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,88; 79,74</t>
+          <t>60,24; 80,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,08; 70,67</t>
+          <t>52,31; 70,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,44; 63,5</t>
+          <t>40,2; 63,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,28; 87,36</t>
+          <t>69,34; 87,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,36; 83,15</t>
+          <t>71,75; 83,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,77; 68,45</t>
+          <t>56,67; 68,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,02; 61,92</t>
+          <t>45,05; 61,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,06; 81,3</t>
+          <t>68,69; 80,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que les afecta para realizar actividades como pasear, hacer deporte,... dicha enfermedad, dolencia..</t>
+          <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades como pasear, ir al cine, hacer deporte, etc</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57,19%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>81,61%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>39,74%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>42,33%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>48,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>49,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>43,1%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>21,8%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>52,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,95; 95,43</t>
+          <t>23,73; 76,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 58,13</t>
+          <t>26,64; 60,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 66,54</t>
+          <t>5,23; 45,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,6; 73,22</t>
+          <t>26,38; 82,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 79,19</t>
+          <t>57,93; 95,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,52; 60,63</t>
+          <t>22,78; 57,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 47,05</t>
+          <t>20,36; 65,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,98; 82,59</t>
+          <t>26,92; 73,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,38; 82,61</t>
+          <t>51,75; 83,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,32; 54,96</t>
+          <t>28,67; 53,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,34; 49,4</t>
+          <t>20,83; 51,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,51; 68,99</t>
+          <t>34,57; 70,31</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>75,58%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>72,92%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>63,36%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79,74%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>75,37%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>69,6%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>53,42%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>66,79%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>75,58%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>72,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>63,36%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>71,35%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,45; 85,0</t>
+          <t>58,73; 87,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,26; 81,54</t>
+          <t>57,3; 83,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,7; 70,63</t>
+          <t>45,01; 78,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,55; 81,7</t>
+          <t>48,33; 95,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,5; 87,36</t>
+          <t>60,3; 85,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,12; 83,56</t>
+          <t>56,0; 80,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,12; 80,06</t>
+          <t>34,07; 70,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,31; 95,75</t>
+          <t>49,74; 80,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,43; 83,79</t>
+          <t>64,13; 83,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,94; 79,65</t>
+          <t>61,65; 79,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,29; 70,78</t>
+          <t>45,09; 69,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,76; 81,4</t>
+          <t>58,81; 82,84</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>75,35%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64,84%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67,16%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>85,45%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>89,91%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>58,84%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>60,95%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>76,11%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>75,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>64,84%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>67,16%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,58%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>80,48%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,03; 100,0</t>
+          <t>52,36; 90,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,07; 78,71</t>
+          <t>46,47; 80,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 87,36</t>
+          <t>34,25; 91,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,93; 90,27</t>
+          <t>61,94; 95,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,91; 90,5</t>
+          <t>70,41; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,73; 82,29</t>
+          <t>37,66; 78,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,65; 88,88</t>
+          <t>24,21; 87,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,91; 95,19</t>
+          <t>59,74; 89,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,07; 92,96</t>
+          <t>70,45; 92,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,61; 74,95</t>
+          <t>49,13; 75,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,72; 85,35</t>
+          <t>37,25; 82,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>65,92; 89,55</t>
+          <t>67,19; 89,89</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>65,54%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44,79%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>85,72%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>88,62%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>77,29%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>69,51%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>79,66%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>74,07%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>65,54%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>44,79%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>81,37%</t>
+          <t>84,01%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,07; 96,39</t>
+          <t>40,73; 92,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,66; 89,27</t>
+          <t>40,03; 84,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,24; 93,65</t>
+          <t>21,19; 70,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,99; 91,68</t>
+          <t>70,18; 95,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,56; 92,11</t>
+          <t>73,3; 96,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,28; 85,09</t>
+          <t>61,51; 90,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 70,2</t>
+          <t>46,14; 88,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,57; 93,11</t>
+          <t>68,57; 94,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,69; 94,3</t>
+          <t>69,66; 94,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,99; 83,75</t>
+          <t>59,58; 83,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,95; 73,42</t>
+          <t>40,34; 75,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,36; 89,48</t>
+          <t>73,95; 91,68</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>81,98%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>63,09%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>55,26%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>72,05%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>70,89%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>62,34%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>51,34%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>76,88%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,9; 88,28</t>
+          <t>59,04; 79,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,65; 70,96</t>
+          <t>52,97; 70,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,25; 65,7</t>
+          <t>39,66; 62,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,88; 80,32</t>
+          <t>70,22; 88,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,24; 80,3</t>
+          <t>74,61; 87,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,31; 70,35</t>
+          <t>55,32; 70,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>40,2; 63,4</t>
+          <t>43,35; 66,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,34; 87,56</t>
+          <t>66,16; 83,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,75; 83,11</t>
+          <t>71,76; 83,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,67; 68,3</t>
+          <t>56,39; 68,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,05; 61,91</t>
+          <t>45,34; 61,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>68,69; 80,87</t>
+          <t>70,55; 83,15</t>
         </is>
       </c>
     </row>
